--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7013873333333334</v>
+        <v>1.379393333333333</v>
       </c>
       <c r="H2">
-        <v>2.104162</v>
+        <v>4.13818</v>
       </c>
       <c r="I2">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="J2">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>0.5056897465233333</v>
+        <v>0.7656911237822221</v>
       </c>
       <c r="R2">
-        <v>4.55120771871</v>
+        <v>6.891220114039999</v>
       </c>
       <c r="S2">
-        <v>0.02696368934842086</v>
+        <v>0.03391007619551949</v>
       </c>
       <c r="T2">
-        <v>0.02696368934842086</v>
+        <v>0.03391007619551948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7013873333333334</v>
+        <v>1.379393333333333</v>
       </c>
       <c r="H3">
-        <v>2.104162</v>
+        <v>4.13818</v>
       </c>
       <c r="I3">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="J3">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>2.375811885953556</v>
+        <v>4.672424095775556</v>
       </c>
       <c r="R3">
-        <v>21.382306973582</v>
+        <v>42.05181686198</v>
       </c>
       <c r="S3">
-        <v>0.1266797558850281</v>
+        <v>0.2069271174555165</v>
       </c>
       <c r="T3">
-        <v>0.1266797558850281</v>
+        <v>0.2069271174555165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7013873333333334</v>
+        <v>1.379393333333333</v>
       </c>
       <c r="H4">
-        <v>2.104162</v>
+        <v>4.13818</v>
       </c>
       <c r="I4">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="J4">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>0.3346050102188889</v>
+        <v>0.7327043116088889</v>
       </c>
       <c r="R4">
-        <v>3.011445091970001</v>
+        <v>6.59433880448</v>
       </c>
       <c r="S4">
-        <v>0.01784134563137917</v>
+        <v>0.03244919297576942</v>
       </c>
       <c r="T4">
-        <v>0.01784134563137917</v>
+        <v>0.03244919297576942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7013873333333334</v>
+        <v>1.379393333333333</v>
       </c>
       <c r="H5">
-        <v>2.104162</v>
+        <v>4.13818</v>
       </c>
       <c r="I5">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="J5">
-        <v>0.1758510422341793</v>
+        <v>0.2804878676989906</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>0.0818867373708889</v>
+        <v>0.1626097831</v>
       </c>
       <c r="R5">
-        <v>0.7369806363380002</v>
+        <v>1.4634880479</v>
       </c>
       <c r="S5">
-        <v>0.004366251369351217</v>
+        <v>0.007201481072185212</v>
       </c>
       <c r="T5">
-        <v>0.004366251369351217</v>
+        <v>0.007201481072185211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.09415</v>
       </c>
       <c r="I6">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="J6">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>1.704925245916666</v>
+        <v>1.312636880411111</v>
       </c>
       <c r="R6">
-        <v>15.34432721325</v>
+        <v>11.8137319237</v>
       </c>
       <c r="S6">
-        <v>0.09090766623059435</v>
+        <v>0.05813260105709383</v>
       </c>
       <c r="T6">
-        <v>0.09090766623059435</v>
+        <v>0.05813260105709382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.09415</v>
       </c>
       <c r="I7">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="J7">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
         <v>8.010013435627778</v>
@@ -883,10 +883,10 @@
         <v>72.09012092064999</v>
       </c>
       <c r="S7">
-        <v>0.4270988594090054</v>
+        <v>0.3547385590518181</v>
       </c>
       <c r="T7">
-        <v>0.4270988594090054</v>
+        <v>0.3547385590518181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.09415</v>
       </c>
       <c r="I8">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="J8">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>1.128115674194445</v>
+        <v>1.256087046044445</v>
       </c>
       <c r="R8">
-        <v>10.15304106775</v>
+        <v>11.3047834144</v>
       </c>
       <c r="S8">
-        <v>0.06015182391415134</v>
+        <v>0.05562818493856107</v>
       </c>
       <c r="T8">
-        <v>0.06015182391415134</v>
+        <v>0.05562818493856106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.09415</v>
       </c>
       <c r="I9">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="J9">
-        <v>0.5928790992640315</v>
+        <v>0.4808449624319857</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>0.2760798825944445</v>
+        <v>0.27876462425</v>
       </c>
       <c r="R9">
-        <v>2.48471894335</v>
+        <v>2.50888161825</v>
       </c>
       <c r="S9">
-        <v>0.01472074971028036</v>
+        <v>0.01234561738451269</v>
       </c>
       <c r="T9">
-        <v>0.01472074971028036</v>
+        <v>0.01234561738451269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.922427</v>
+        <v>1.173726</v>
       </c>
       <c r="H10">
-        <v>2.767281</v>
+        <v>3.521178</v>
       </c>
       <c r="I10">
-        <v>0.2312698585017892</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="J10">
-        <v>0.2312698585017893</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N10">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q10">
-        <v>0.6650560305949998</v>
+        <v>0.6515266952759999</v>
       </c>
       <c r="R10">
-        <v>5.985504275355</v>
+        <v>5.863740257483999</v>
       </c>
       <c r="S10">
-        <v>0.03546119796089248</v>
+        <v>0.02885408906282156</v>
       </c>
       <c r="T10">
-        <v>0.03546119796089248</v>
+        <v>0.02885408906282155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.922427</v>
+        <v>1.173726</v>
       </c>
       <c r="H11">
-        <v>2.767281</v>
+        <v>3.521178</v>
       </c>
       <c r="I11">
-        <v>0.2312698585017892</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="J11">
-        <v>0.2312698585017893</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q11">
-        <v>3.124540359332333</v>
+        <v>3.975766383462</v>
       </c>
       <c r="R11">
-        <v>28.120863233991</v>
+        <v>35.781897451158</v>
       </c>
       <c r="S11">
-        <v>0.1666024201298552</v>
+        <v>0.1760743161456923</v>
       </c>
       <c r="T11">
-        <v>0.1666024201298552</v>
+        <v>0.1760743161456922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.922427</v>
+        <v>1.173726</v>
       </c>
       <c r="H12">
-        <v>2.767281</v>
+        <v>3.521178</v>
       </c>
       <c r="I12">
-        <v>0.2312698585017892</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="J12">
-        <v>0.2312698585017893</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N12">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q12">
-        <v>0.4400545619983334</v>
+        <v>0.623458211712</v>
       </c>
       <c r="R12">
-        <v>3.960491057985001</v>
+        <v>5.611123905408</v>
       </c>
       <c r="S12">
-        <v>0.02346398080573101</v>
+        <v>0.02761102330590593</v>
       </c>
       <c r="T12">
-        <v>0.02346398080573101</v>
+        <v>0.02761102330590593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.922427</v>
+        <v>1.173726</v>
       </c>
       <c r="H13">
-        <v>2.767281</v>
+        <v>3.521178</v>
       </c>
       <c r="I13">
-        <v>0.2312698585017892</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="J13">
-        <v>0.2312698585017893</v>
+        <v>0.2386671698690237</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N13">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q13">
-        <v>0.1076930447743333</v>
+        <v>0.13836468951</v>
       </c>
       <c r="R13">
-        <v>0.9692374029690001</v>
+        <v>1.24528220559</v>
       </c>
       <c r="S13">
-        <v>0.00574225960531062</v>
+        <v>0.006127741354603952</v>
       </c>
       <c r="T13">
-        <v>0.00574225960531062</v>
+        <v>0.006127741354603951</v>
       </c>
     </row>
   </sheetData>
